--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fstl1-Dip2a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Dip2a</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.6952573407063</v>
+        <v>24.91310933333333</v>
       </c>
       <c r="H2">
-        <v>11.6952573407063</v>
+        <v>74.739328</v>
       </c>
       <c r="I2">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131797</v>
       </c>
       <c r="J2">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131796</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.46570998767886</v>
+        <v>8.505498666666668</v>
       </c>
       <c r="N2">
-        <v>6.46570998767886</v>
+        <v>25.516496</v>
       </c>
       <c r="O2">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213552</v>
       </c>
       <c r="P2">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213551</v>
       </c>
       <c r="Q2">
-        <v>75.61814219627922</v>
+        <v>211.8984182171876</v>
       </c>
       <c r="R2">
-        <v>75.61814219627922</v>
+        <v>1907.085763954688</v>
       </c>
       <c r="S2">
-        <v>0.007228237428837498</v>
+        <v>0.01709991442382713</v>
       </c>
       <c r="T2">
-        <v>0.007228237428837498</v>
+        <v>0.01709991442382713</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.6952573407063</v>
+        <v>24.91310933333333</v>
       </c>
       <c r="H3">
-        <v>11.6952573407063</v>
+        <v>74.739328</v>
       </c>
       <c r="I3">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131797</v>
       </c>
       <c r="J3">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131796</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.476949420506919</v>
+        <v>8.575027</v>
       </c>
       <c r="N3">
-        <v>8.476949420506919</v>
+        <v>25.725081</v>
       </c>
       <c r="O3">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586047</v>
       </c>
       <c r="P3">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586046</v>
       </c>
       <c r="Q3">
-        <v>99.14010493697957</v>
+        <v>213.6305851872854</v>
       </c>
       <c r="R3">
-        <v>99.14010493697957</v>
+        <v>1922.675266685568</v>
       </c>
       <c r="S3">
-        <v>0.009476670497197344</v>
+        <v>0.01723969794465593</v>
       </c>
       <c r="T3">
-        <v>0.009476670497197344</v>
+        <v>0.01723969794465592</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.6952573407063</v>
+        <v>24.91310933333333</v>
       </c>
       <c r="H4">
-        <v>11.6952573407063</v>
+        <v>74.739328</v>
       </c>
       <c r="I4">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131797</v>
       </c>
       <c r="J4">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131796</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.30533720314552</v>
+        <v>2.846185</v>
       </c>
       <c r="N4">
-        <v>2.30533720314552</v>
+        <v>8.538555000000001</v>
       </c>
       <c r="O4">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202038</v>
       </c>
       <c r="P4">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202036</v>
       </c>
       <c r="Q4">
-        <v>26.96151184789097</v>
+        <v>70.90731808789334</v>
       </c>
       <c r="R4">
-        <v>26.96151184789097</v>
+        <v>638.16586279104</v>
       </c>
       <c r="S4">
-        <v>0.002577214983292203</v>
+        <v>0.005722124221254409</v>
       </c>
       <c r="T4">
-        <v>0.002577214983292203</v>
+        <v>0.005722124221254407</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.6952573407063</v>
+        <v>24.91310933333333</v>
       </c>
       <c r="H5">
-        <v>11.6952573407063</v>
+        <v>74.739328</v>
       </c>
       <c r="I5">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131797</v>
       </c>
       <c r="J5">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131796</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.99323832943472</v>
+        <v>3.083282333333333</v>
       </c>
       <c r="N5">
-        <v>2.99323832943472</v>
+        <v>9.249846999999999</v>
       </c>
       <c r="O5">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="P5">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="Q5">
-        <v>35.00669254480487</v>
+        <v>76.81414987586844</v>
       </c>
       <c r="R5">
-        <v>35.00669254480487</v>
+        <v>691.327348882816</v>
       </c>
       <c r="S5">
-        <v>0.00334624308350987</v>
+        <v>0.006198797520376389</v>
       </c>
       <c r="T5">
-        <v>0.00334624308350987</v>
+        <v>0.006198797520376388</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.6952573407063</v>
+        <v>24.91310933333333</v>
       </c>
       <c r="H6">
-        <v>11.6952573407063</v>
+        <v>74.739328</v>
       </c>
       <c r="I6">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131797</v>
       </c>
       <c r="J6">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131796</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.28839676193694</v>
+        <v>3.378539333333333</v>
       </c>
       <c r="N6">
-        <v>3.28839676193694</v>
+        <v>10.135618</v>
       </c>
       <c r="O6">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="P6">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="Q6">
-        <v>38.45864636919782</v>
+        <v>84.16991979830044</v>
       </c>
       <c r="R6">
-        <v>38.45864636919782</v>
+        <v>757.5292781847039</v>
       </c>
       <c r="S6">
-        <v>0.003676210748826614</v>
+        <v>0.006792398158140594</v>
       </c>
       <c r="T6">
-        <v>0.003676210748826614</v>
+        <v>0.006792398158140592</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.6952573407063</v>
+        <v>24.91310933333333</v>
       </c>
       <c r="H7">
-        <v>11.6952573407063</v>
+        <v>74.739328</v>
       </c>
       <c r="I7">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131797</v>
       </c>
       <c r="J7">
-        <v>0.03059346524122559</v>
+        <v>0.06151447507131796</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.83644138431674</v>
+        <v>4.208772</v>
       </c>
       <c r="N7">
-        <v>3.83644138431674</v>
+        <v>12.626316</v>
       </c>
       <c r="O7">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="P7">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="Q7">
-        <v>44.86816926211979</v>
+        <v>104.853596995072</v>
       </c>
       <c r="R7">
-        <v>44.86816926211979</v>
+        <v>943.6823729556479</v>
       </c>
       <c r="S7">
-        <v>0.004288888499562059</v>
+        <v>0.008461542803063526</v>
       </c>
       <c r="T7">
-        <v>0.004288888499562059</v>
+        <v>0.008461542803063523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>333.534829455323</v>
+        <v>336.5421346666666</v>
       </c>
       <c r="H8">
-        <v>333.534829455323</v>
+        <v>1009.626404</v>
       </c>
       <c r="I8">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="J8">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.46570998767886</v>
+        <v>8.505498666666668</v>
       </c>
       <c r="N8">
-        <v>6.46570998767886</v>
+        <v>25.516496</v>
       </c>
       <c r="O8">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213552</v>
       </c>
       <c r="P8">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213551</v>
       </c>
       <c r="Q8">
-        <v>2156.539478048047</v>
+        <v>2862.458677684487</v>
       </c>
       <c r="R8">
-        <v>2156.539478048047</v>
+        <v>25762.12809916039</v>
       </c>
       <c r="S8">
-        <v>0.2061407344752194</v>
+        <v>0.2309965257974532</v>
       </c>
       <c r="T8">
-        <v>0.2061407344752194</v>
+        <v>0.2309965257974532</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>333.534829455323</v>
+        <v>336.5421346666666</v>
       </c>
       <c r="H9">
-        <v>333.534829455323</v>
+        <v>1009.626404</v>
       </c>
       <c r="I9">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="J9">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.476949420506919</v>
+        <v>8.575027</v>
       </c>
       <c r="N9">
-        <v>8.476949420506919</v>
+        <v>25.725081</v>
       </c>
       <c r="O9">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586047</v>
       </c>
       <c r="P9">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586046</v>
       </c>
       <c r="Q9">
-        <v>2827.357879270175</v>
+        <v>2885.857891404303</v>
       </c>
       <c r="R9">
-        <v>2827.357879270175</v>
+        <v>25972.72102263872</v>
       </c>
       <c r="S9">
-        <v>0.2702633713826532</v>
+        <v>0.232884810549931</v>
       </c>
       <c r="T9">
-        <v>0.2702633713826532</v>
+        <v>0.232884810549931</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>333.534829455323</v>
+        <v>336.5421346666666</v>
       </c>
       <c r="H10">
-        <v>333.534829455323</v>
+        <v>1009.626404</v>
       </c>
       <c r="I10">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="J10">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.30533720314552</v>
+        <v>2.846185</v>
       </c>
       <c r="N10">
-        <v>2.30533720314552</v>
+        <v>8.538555000000001</v>
       </c>
       <c r="O10">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202038</v>
       </c>
       <c r="P10">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202036</v>
       </c>
       <c r="Q10">
-        <v>768.9102508881524</v>
+        <v>957.8611755562466</v>
       </c>
       <c r="R10">
-        <v>768.9102508881524</v>
+        <v>8620.750580006221</v>
       </c>
       <c r="S10">
-        <v>0.07349910608039308</v>
+        <v>0.0772980953313681</v>
       </c>
       <c r="T10">
-        <v>0.07349910608039308</v>
+        <v>0.07729809533136808</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>333.534829455323</v>
+        <v>336.5421346666666</v>
       </c>
       <c r="H11">
-        <v>333.534829455323</v>
+        <v>1009.626404</v>
       </c>
       <c r="I11">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="J11">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.99323832943472</v>
+        <v>3.083282333333333</v>
       </c>
       <c r="N11">
-        <v>2.99323832943472</v>
+        <v>9.249846999999999</v>
       </c>
       <c r="O11">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="P11">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="Q11">
-        <v>998.3492357271452</v>
+        <v>1037.654418240021</v>
       </c>
       <c r="R11">
-        <v>998.3492357271452</v>
+        <v>9338.889764160187</v>
       </c>
       <c r="S11">
-        <v>0.09543087284534396</v>
+        <v>0.08373730159336903</v>
       </c>
       <c r="T11">
-        <v>0.09543087284534396</v>
+        <v>0.08373730159336902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>333.534829455323</v>
+        <v>336.5421346666666</v>
       </c>
       <c r="H12">
-        <v>333.534829455323</v>
+        <v>1009.626404</v>
       </c>
       <c r="I12">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="J12">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.28839676193694</v>
+        <v>3.378539333333333</v>
       </c>
       <c r="N12">
-        <v>3.28839676193694</v>
+        <v>10.135618</v>
       </c>
       <c r="O12">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="P12">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="Q12">
-        <v>1096.794853174074</v>
+        <v>1137.020839295297</v>
       </c>
       <c r="R12">
-        <v>1096.794853174074</v>
+        <v>10233.18755365767</v>
       </c>
       <c r="S12">
-        <v>0.1048411582089788</v>
+        <v>0.09175603675403278</v>
       </c>
       <c r="T12">
-        <v>0.1048411582089788</v>
+        <v>0.09175603675403277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>333.534829455323</v>
+        <v>336.5421346666666</v>
       </c>
       <c r="H13">
-        <v>333.534829455323</v>
+        <v>1009.626404</v>
       </c>
       <c r="I13">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="J13">
-        <v>0.8724892419565425</v>
+        <v>0.8309766748264368</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.83644138431674</v>
+        <v>4.208772</v>
       </c>
       <c r="N13">
-        <v>3.83644138431674</v>
+        <v>12.626316</v>
       </c>
       <c r="O13">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="P13">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="Q13">
-        <v>1279.586822833427</v>
+        <v>1416.429113205296</v>
       </c>
       <c r="R13">
-        <v>1279.586822833427</v>
+        <v>12747.86201884766</v>
       </c>
       <c r="S13">
-        <v>0.1223139989639541</v>
+        <v>0.1143039048002828</v>
       </c>
       <c r="T13">
-        <v>0.1223139989639541</v>
+        <v>0.1143039048002827</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.441641263113767</v>
+        <v>0.119661</v>
       </c>
       <c r="H14">
-        <v>0.441641263113767</v>
+        <v>0.358983</v>
       </c>
       <c r="I14">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="J14">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.46570998767886</v>
+        <v>8.505498666666668</v>
       </c>
       <c r="N14">
-        <v>6.46570998767886</v>
+        <v>25.516496</v>
       </c>
       <c r="O14">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213552</v>
       </c>
       <c r="P14">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213551</v>
       </c>
       <c r="Q14">
-        <v>2.855524325885791</v>
+        <v>1.017776475952</v>
       </c>
       <c r="R14">
-        <v>2.855524325885791</v>
+        <v>9.159988283568001</v>
       </c>
       <c r="S14">
-        <v>0.0002729557644744576</v>
+        <v>8.213317866075455E-05</v>
       </c>
       <c r="T14">
-        <v>0.0002729557644744576</v>
+        <v>8.213317866075453E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.441641263113767</v>
+        <v>0.119661</v>
       </c>
       <c r="H15">
-        <v>0.441641263113767</v>
+        <v>0.358983</v>
       </c>
       <c r="I15">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="J15">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.476949420506919</v>
+        <v>8.575027</v>
       </c>
       <c r="N15">
-        <v>8.476949420506919</v>
+        <v>25.725081</v>
       </c>
       <c r="O15">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586047</v>
       </c>
       <c r="P15">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586046</v>
       </c>
       <c r="Q15">
-        <v>3.743770649424191</v>
+        <v>1.026096305847</v>
       </c>
       <c r="R15">
-        <v>3.743770649424191</v>
+        <v>9.234866752622999</v>
       </c>
       <c r="S15">
-        <v>0.000357862046688615</v>
+        <v>8.280457762834606E-05</v>
       </c>
       <c r="T15">
-        <v>0.000357862046688615</v>
+        <v>8.280457762834605E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.441641263113767</v>
+        <v>0.119661</v>
       </c>
       <c r="H16">
-        <v>0.441641263113767</v>
+        <v>0.358983</v>
       </c>
       <c r="I16">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="J16">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.30533720314552</v>
+        <v>2.846185</v>
       </c>
       <c r="N16">
-        <v>2.30533720314552</v>
+        <v>8.538555000000001</v>
       </c>
       <c r="O16">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202038</v>
       </c>
       <c r="P16">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202036</v>
       </c>
       <c r="Q16">
-        <v>1.018132034300346</v>
+        <v>0.3405773432850001</v>
       </c>
       <c r="R16">
-        <v>1.018132034300346</v>
+        <v>3.065196089565</v>
       </c>
       <c r="S16">
-        <v>9.73218841944829E-05</v>
+        <v>2.74841288286479E-05</v>
       </c>
       <c r="T16">
-        <v>9.73218841944829E-05</v>
+        <v>2.74841288286479E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.441641263113767</v>
+        <v>0.119661</v>
       </c>
       <c r="H17">
-        <v>0.441641263113767</v>
+        <v>0.358983</v>
       </c>
       <c r="I17">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="J17">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.99323832943472</v>
+        <v>3.083282333333333</v>
       </c>
       <c r="N17">
-        <v>2.99323832943472</v>
+        <v>9.249846999999999</v>
       </c>
       <c r="O17">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="P17">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="Q17">
-        <v>1.321937556612091</v>
+        <v>0.368948647289</v>
       </c>
       <c r="R17">
-        <v>1.321937556612091</v>
+        <v>3.320537825600999</v>
       </c>
       <c r="S17">
-        <v>0.0001263622491608856</v>
+        <v>2.977365451101296E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001263622491608856</v>
+        <v>2.977365451101296E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.441641263113767</v>
+        <v>0.119661</v>
       </c>
       <c r="H18">
-        <v>0.441641263113767</v>
+        <v>0.358983</v>
       </c>
       <c r="I18">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="J18">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.28839676193694</v>
+        <v>3.378539333333333</v>
       </c>
       <c r="N18">
-        <v>3.28839676193694</v>
+        <v>10.135618</v>
       </c>
       <c r="O18">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="P18">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="Q18">
-        <v>1.452291699561052</v>
+        <v>0.404279395166</v>
       </c>
       <c r="R18">
-        <v>1.452291699561052</v>
+        <v>3.638514556494</v>
       </c>
       <c r="S18">
-        <v>0.0001388226279496423</v>
+        <v>3.262479785747853E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001388226279496423</v>
+        <v>3.262479785747852E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.441641263113767</v>
+        <v>0.119661</v>
       </c>
       <c r="H19">
-        <v>0.441641263113767</v>
+        <v>0.358983</v>
       </c>
       <c r="I19">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="J19">
-        <v>0.001155283397239553</v>
+        <v>0.0002954622605721975</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.83644138431674</v>
+        <v>4.208772</v>
       </c>
       <c r="N19">
-        <v>3.83644138431674</v>
+        <v>12.626316</v>
       </c>
       <c r="O19">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="P19">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="Q19">
-        <v>1.694330818831574</v>
+        <v>0.503625866292</v>
       </c>
       <c r="R19">
-        <v>1.694330818831574</v>
+        <v>4.532632796628</v>
       </c>
       <c r="S19">
-        <v>0.0001619588247714697</v>
+        <v>4.064192308595755E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001619588247714697</v>
+        <v>4.064192308595754E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.346668316013297</v>
+        <v>0.4989403333333334</v>
       </c>
       <c r="H20">
-        <v>0.346668316013297</v>
+        <v>1.496821</v>
       </c>
       <c r="I20">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="J20">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.46570998767886</v>
+        <v>8.505498666666668</v>
       </c>
       <c r="N20">
-        <v>6.46570998767886</v>
+        <v>25.516496</v>
       </c>
       <c r="O20">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213552</v>
       </c>
       <c r="P20">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213551</v>
       </c>
       <c r="Q20">
-        <v>2.241456793258986</v>
+        <v>4.24373633991289</v>
       </c>
       <c r="R20">
-        <v>2.241456793258986</v>
+        <v>38.19362705921601</v>
       </c>
       <c r="S20">
-        <v>0.0002142578674586094</v>
+        <v>0.0003424637562674814</v>
       </c>
       <c r="T20">
-        <v>0.0002142578674586094</v>
+        <v>0.0003424637562674814</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.346668316013297</v>
+        <v>0.4989403333333334</v>
       </c>
       <c r="H21">
-        <v>0.346668316013297</v>
+        <v>1.496821</v>
       </c>
       <c r="I21">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="J21">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.476949420506919</v>
+        <v>8.575027</v>
       </c>
       <c r="N21">
-        <v>8.476949420506919</v>
+        <v>25.725081</v>
       </c>
       <c r="O21">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586047</v>
       </c>
       <c r="P21">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586046</v>
       </c>
       <c r="Q21">
-        <v>2.938689780537028</v>
+        <v>4.278426829722334</v>
       </c>
       <c r="R21">
-        <v>2.938689780537028</v>
+        <v>38.50584146750101</v>
       </c>
       <c r="S21">
-        <v>0.000280905439441822</v>
+        <v>0.000345263231657874</v>
       </c>
       <c r="T21">
-        <v>0.000280905439441822</v>
+        <v>0.0003452632316578739</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.346668316013297</v>
+        <v>0.4989403333333334</v>
       </c>
       <c r="H22">
-        <v>0.346668316013297</v>
+        <v>1.496821</v>
       </c>
       <c r="I22">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="J22">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.30533720314552</v>
+        <v>2.846185</v>
       </c>
       <c r="N22">
-        <v>2.30533720314552</v>
+        <v>8.538555000000001</v>
       </c>
       <c r="O22">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202038</v>
       </c>
       <c r="P22">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202036</v>
       </c>
       <c r="Q22">
-        <v>0.7991873660572615</v>
+        <v>1.420076492628334</v>
       </c>
       <c r="R22">
-        <v>0.7991873660572615</v>
+        <v>12.780688433655</v>
       </c>
       <c r="S22">
-        <v>7.63932551661312E-05</v>
+        <v>0.0001145982433636846</v>
       </c>
       <c r="T22">
-        <v>7.63932551661312E-05</v>
+        <v>0.0001145982433636846</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.346668316013297</v>
+        <v>0.4989403333333334</v>
       </c>
       <c r="H23">
-        <v>0.346668316013297</v>
+        <v>1.496821</v>
       </c>
       <c r="I23">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="J23">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.99323832943472</v>
+        <v>3.083282333333333</v>
       </c>
       <c r="N23">
-        <v>2.99323832943472</v>
+        <v>9.249846999999999</v>
       </c>
       <c r="O23">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="P23">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="Q23">
-        <v>1.037660891091589</v>
+        <v>1.538373915154111</v>
       </c>
       <c r="R23">
-        <v>1.037660891091589</v>
+        <v>13.845365236387</v>
       </c>
       <c r="S23">
-        <v>9.918862158713746E-05</v>
+        <v>0.0001241446846196865</v>
       </c>
       <c r="T23">
-        <v>9.918862158713746E-05</v>
+        <v>0.0001241446846196865</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.346668316013297</v>
+        <v>0.4989403333333334</v>
       </c>
       <c r="H24">
-        <v>0.346668316013297</v>
+        <v>1.496821</v>
       </c>
       <c r="I24">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="J24">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.28839676193694</v>
+        <v>3.378539333333333</v>
       </c>
       <c r="N24">
-        <v>3.28839676193694</v>
+        <v>10.135618</v>
       </c>
       <c r="O24">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="P24">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="Q24">
-        <v>1.139982967844258</v>
+        <v>1.685689541153111</v>
       </c>
       <c r="R24">
-        <v>1.139982967844258</v>
+        <v>15.171205870378</v>
       </c>
       <c r="S24">
-        <v>0.000108969452529271</v>
+        <v>0.0001360328554662167</v>
       </c>
       <c r="T24">
-        <v>0.000108969452529271</v>
+        <v>0.0001360328554662167</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.346668316013297</v>
+        <v>0.4989403333333334</v>
       </c>
       <c r="H25">
-        <v>0.346668316013297</v>
+        <v>1.496821</v>
       </c>
       <c r="I25">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="J25">
-        <v>0.0009068449515234442</v>
+        <v>0.001231963954649488</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.83644138431674</v>
+        <v>4.208772</v>
       </c>
       <c r="N25">
-        <v>3.83644138431674</v>
+        <v>12.626316</v>
       </c>
       <c r="O25">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="P25">
-        <v>0.1401896929865485</v>
+        <v>0.137553686238133</v>
       </c>
       <c r="Q25">
-        <v>1.329972674184806</v>
+        <v>2.099926104604</v>
       </c>
       <c r="R25">
-        <v>1.329972674184806</v>
+        <v>18.899334941436</v>
       </c>
       <c r="S25">
-        <v>0.0001271303153404731</v>
+        <v>0.0001694611832745452</v>
       </c>
       <c r="T25">
-        <v>0.0001271303153404731</v>
+        <v>0.0001694611832745452</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>36.2611933506456</v>
+        <v>0.3831746666666667</v>
       </c>
       <c r="H26">
-        <v>36.2611933506456</v>
+        <v>1.149524</v>
       </c>
       <c r="I26">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="J26">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.46570998767886</v>
+        <v>8.505498666666668</v>
       </c>
       <c r="N26">
-        <v>6.46570998767886</v>
+        <v>25.516496</v>
       </c>
       <c r="O26">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213552</v>
       </c>
       <c r="P26">
-        <v>0.2362673653292873</v>
+        <v>0.2779819612213551</v>
       </c>
       <c r="Q26">
-        <v>234.4543600124235</v>
+        <v>3.259091616433778</v>
       </c>
       <c r="R26">
-        <v>234.4543600124235</v>
+        <v>29.331824547904</v>
       </c>
       <c r="S26">
-        <v>0.02241117979329738</v>
+        <v>0.0002630042650120624</v>
       </c>
       <c r="T26">
-        <v>0.02241117979329738</v>
+        <v>0.0002630042650120624</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>36.2611933506456</v>
+        <v>0.3831746666666667</v>
       </c>
       <c r="H27">
-        <v>36.2611933506456</v>
+        <v>1.149524</v>
       </c>
       <c r="I27">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="J27">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.476949420506919</v>
+        <v>8.575027</v>
       </c>
       <c r="N27">
-        <v>8.476949420506919</v>
+        <v>25.725081</v>
       </c>
       <c r="O27">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586047</v>
       </c>
       <c r="P27">
-        <v>0.3097612651092317</v>
+        <v>0.2802543291586046</v>
       </c>
       <c r="Q27">
-        <v>307.3843019606446</v>
+        <v>3.285733112382667</v>
       </c>
       <c r="R27">
-        <v>307.3843019606446</v>
+        <v>29.571598011444</v>
       </c>
       <c r="S27">
-        <v>0.02938245574325078</v>
+        <v>0.0002651541975348328</v>
       </c>
       <c r="T27">
-        <v>0.02938245574325078</v>
+        <v>0.0002651541975348328</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>36.2611933506456</v>
+        <v>0.3831746666666667</v>
       </c>
       <c r="H28">
-        <v>36.2611933506456</v>
+        <v>1.149524</v>
       </c>
       <c r="I28">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="J28">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.30533720314552</v>
+        <v>2.846185</v>
       </c>
       <c r="N28">
-        <v>2.30533720314552</v>
+        <v>8.538555000000001</v>
       </c>
       <c r="O28">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202038</v>
       </c>
       <c r="P28">
-        <v>0.08424070182868107</v>
+        <v>0.09302077624202036</v>
       </c>
       <c r="Q28">
-        <v>83.59427806169626</v>
+        <v>1.090585988646667</v>
       </c>
       <c r="R28">
-        <v>83.59427806169626</v>
+        <v>9.815273897820001</v>
       </c>
       <c r="S28">
-        <v>0.007990665625635189</v>
+        <v>8.800880740208493E-05</v>
       </c>
       <c r="T28">
-        <v>0.007990665625635189</v>
+        <v>8.800880740208492E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>36.2611933506456</v>
+        <v>0.3831746666666667</v>
       </c>
       <c r="H29">
-        <v>36.2611933506456</v>
+        <v>1.149524</v>
       </c>
       <c r="I29">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="J29">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.99323832943472</v>
+        <v>3.083282333333333</v>
       </c>
       <c r="N29">
-        <v>2.99323832943472</v>
+        <v>9.249846999999999</v>
       </c>
       <c r="O29">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="P29">
-        <v>0.1093777072039786</v>
+        <v>0.1007697377436725</v>
       </c>
       <c r="Q29">
-        <v>108.5383938081958</v>
+        <v>1.181435680314222</v>
       </c>
       <c r="R29">
-        <v>108.5383938081958</v>
+        <v>10.632921122828</v>
       </c>
       <c r="S29">
-        <v>0.01037504040437677</v>
+        <v>9.534025407364044E-05</v>
       </c>
       <c r="T29">
-        <v>0.01037504040437677</v>
+        <v>9.534025407364043E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>36.2611933506456</v>
+        <v>0.3831746666666667</v>
       </c>
       <c r="H30">
-        <v>36.2611933506456</v>
+        <v>1.149524</v>
       </c>
       <c r="I30">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="J30">
-        <v>0.09485516445346899</v>
+        <v>0.0009461198987751364</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.28839676193694</v>
+        <v>3.378539333333333</v>
       </c>
       <c r="N30">
-        <v>3.28839676193694</v>
+        <v>10.135618</v>
       </c>
       <c r="O30">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="P30">
-        <v>0.1201632675422728</v>
+        <v>0.1104195093962144</v>
       </c>
       <c r="Q30">
-        <v>119.2411907982323</v>
+        <v>1.294570682870222</v>
       </c>
       <c r="R30">
-        <v>119.2411907982323</v>
+        <v>11.651136145832</v>
       </c>
       <c r="S30">
-        <v>0.01139810650398848</v>
+        <v>0.0001044700950527466</v>
       </c>
       <c r="T30">
-        <v>0.01139810650398848</v>
+        <v>0.0001044700950527466</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3831746666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.149524</v>
+      </c>
+      <c r="I31">
+        <v>0.0009461198987751364</v>
+      </c>
+      <c r="J31">
+        <v>0.0009461198987751364</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.208772</v>
+      </c>
+      <c r="N31">
+        <v>12.626316</v>
+      </c>
+      <c r="O31">
+        <v>0.137553686238133</v>
+      </c>
+      <c r="P31">
+        <v>0.137553686238133</v>
+      </c>
+      <c r="Q31">
+        <v>1.612694808176</v>
+      </c>
+      <c r="R31">
+        <v>14.514253273584</v>
+      </c>
+      <c r="S31">
+        <v>0.0001301422796997693</v>
+      </c>
+      <c r="T31">
+        <v>0.0001301422796997692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>42.53886600000001</v>
+      </c>
+      <c r="H32">
+        <v>127.616598</v>
+      </c>
+      <c r="I32">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="J32">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>8.505498666666668</v>
+      </c>
+      <c r="N32">
+        <v>25.516496</v>
+      </c>
+      <c r="O32">
+        <v>0.2779819612213552</v>
+      </c>
+      <c r="P32">
+        <v>0.2779819612213551</v>
+      </c>
+      <c r="Q32">
+        <v>361.8142680445121</v>
+      </c>
+      <c r="R32">
+        <v>3256.328412400609</v>
+      </c>
+      <c r="S32">
+        <v>0.02919791980013453</v>
+      </c>
+      <c r="T32">
+        <v>0.02919791980013452</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>42.53886600000001</v>
+      </c>
+      <c r="H33">
+        <v>127.616598</v>
+      </c>
+      <c r="I33">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="J33">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.575027</v>
+      </c>
+      <c r="N33">
+        <v>25.725081</v>
+      </c>
+      <c r="O33">
+        <v>0.2802543291586047</v>
+      </c>
+      <c r="P33">
+        <v>0.2802543291586046</v>
+      </c>
+      <c r="Q33">
+        <v>364.7719244993821</v>
+      </c>
+      <c r="R33">
+        <v>3282.947320494438</v>
+      </c>
+      <c r="S33">
+        <v>0.02943659865719668</v>
+      </c>
+      <c r="T33">
+        <v>0.02943659865719667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>42.53886600000001</v>
+      </c>
+      <c r="H34">
+        <v>127.616598</v>
+      </c>
+      <c r="I34">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="J34">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>2.846185</v>
+      </c>
+      <c r="N34">
+        <v>8.538555000000001</v>
+      </c>
+      <c r="O34">
+        <v>0.09302077624202038</v>
+      </c>
+      <c r="P34">
+        <v>0.09302077624202036</v>
+      </c>
+      <c r="Q34">
+        <v>121.07348232621</v>
+      </c>
+      <c r="R34">
+        <v>1089.66134093589</v>
+      </c>
+      <c r="S34">
+        <v>0.009770465509803448</v>
+      </c>
+      <c r="T34">
+        <v>0.009770465509803445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>42.53886600000001</v>
+      </c>
+      <c r="H35">
+        <v>127.616598</v>
+      </c>
+      <c r="I35">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="J35">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>3.083282333333333</v>
+      </c>
+      <c r="N35">
+        <v>9.249846999999999</v>
+      </c>
+      <c r="O35">
+        <v>0.1007697377436725</v>
+      </c>
+      <c r="P35">
+        <v>0.1007697377436725</v>
+      </c>
+      <c r="Q35">
+        <v>131.159334017834</v>
+      </c>
+      <c r="R35">
+        <v>1180.434006160506</v>
+      </c>
+      <c r="S35">
+        <v>0.01058438003672271</v>
+      </c>
+      <c r="T35">
+        <v>0.01058438003672271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>36.2611933506456</v>
-      </c>
-      <c r="H31">
-        <v>36.2611933506456</v>
-      </c>
-      <c r="I31">
-        <v>0.09485516445346899</v>
-      </c>
-      <c r="J31">
-        <v>0.09485516445346899</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>3.83644138431674</v>
-      </c>
-      <c r="N31">
-        <v>3.83644138431674</v>
-      </c>
-      <c r="O31">
-        <v>0.1401896929865485</v>
-      </c>
-      <c r="P31">
-        <v>0.1401896929865485</v>
-      </c>
-      <c r="Q31">
-        <v>139.1139428151278</v>
-      </c>
-      <c r="R31">
-        <v>139.1139428151278</v>
-      </c>
-      <c r="S31">
-        <v>0.01329771638292039</v>
-      </c>
-      <c r="T31">
-        <v>0.01329771638292039</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>42.53886600000001</v>
+      </c>
+      <c r="H36">
+        <v>127.616598</v>
+      </c>
+      <c r="I36">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="J36">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>3.378539333333333</v>
+      </c>
+      <c r="N36">
+        <v>10.135618</v>
+      </c>
+      <c r="O36">
+        <v>0.1104195093962144</v>
+      </c>
+      <c r="P36">
+        <v>0.1104195093962144</v>
+      </c>
+      <c r="Q36">
+        <v>143.719231976396</v>
+      </c>
+      <c r="R36">
+        <v>1293.473087787564</v>
+      </c>
+      <c r="S36">
+        <v>0.01159794673566464</v>
+      </c>
+      <c r="T36">
+        <v>0.01159794673566464</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>42.53886600000001</v>
+      </c>
+      <c r="H37">
+        <v>127.616598</v>
+      </c>
+      <c r="I37">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="J37">
+        <v>0.1050353039882484</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.208772</v>
+      </c>
+      <c r="N37">
+        <v>12.626316</v>
+      </c>
+      <c r="O37">
+        <v>0.137553686238133</v>
+      </c>
+      <c r="P37">
+        <v>0.137553686238133</v>
+      </c>
+      <c r="Q37">
+        <v>179.036388132552</v>
+      </c>
+      <c r="R37">
+        <v>1611.327493192968</v>
+      </c>
+      <c r="S37">
+        <v>0.01444799324872644</v>
+      </c>
+      <c r="T37">
+        <v>0.01444799324872644</v>
       </c>
     </row>
   </sheetData>
